--- a/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
+++ b/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb19ff15cf06bf2/Documents/GitHub/MC_data_cleaning/W23 Rubric Item Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CDC7CF-4D09-4854-A4DB-DBFEA0AB5584}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EB9D285-BF5E-439E-B2CC-E5704B138DD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{02D36E81-293C-434C-9FD3-5ECF56E8B616}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
+++ b/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb19ff15cf06bf2/Documents/GitHub/MC_data_cleaning/W23 Rubric Item Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EB9D285-BF5E-439E-B2CC-E5704B138DD1}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1256B5C3-B95E-4513-84B7-35E3223133E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{02D36E81-293C-434C-9FD3-5ECF56E8B616}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{02D36E81-293C-434C-9FD3-5ECF56E8B616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Anon_SID</t>
   </si>
@@ -96,29 +96,23 @@
     <t>currentMistakes</t>
   </si>
   <si>
-    <t>7/7 = 1</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>5/10 = .5</t>
-  </si>
-  <si>
     <t>repMistakes (%)</t>
   </si>
   <si>
-    <t>0/3 = 0</t>
-  </si>
-  <si>
-    <t>0/6 = 0</t>
+    <t>NumRep</t>
+  </si>
+  <si>
+    <t>numTot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +126,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,9 +170,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,21 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1EB34-A580-4227-B89D-BEED660729D4}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,218 +549,265 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>9999999</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>915435469</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>915435469</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10">
+        <v>6</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>915435469</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E6" si="0">IF(H5 = 0, 0,  F5/H5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>915435469</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9999999</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E7" s="11">
+        <f>IF(H7 = 0, 0,  F7/H7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9999999</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>915435469</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>9999999</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9999999</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9999999</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>9999999</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9999999</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9999999</v>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>915435469</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -741,50 +816,58 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>915435469</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9999999</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9999999</v>
-      </c>
-      <c r="B12">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>915435469</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9999999</v>
       </c>
@@ -796,6 +879,11 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>9999999</v>
       </c>
     </row>

--- a/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
+++ b/W23 Rubric Item Data/AggregatedData_mock-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb19ff15cf06bf2/Documents/GitHub/MC_data_cleaning/W23 Rubric Item Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1256B5C3-B95E-4513-84B7-35E3223133E0}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{81B70AF9-CE3E-4C3E-AB8D-007B482BF361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFC5EEB8-135E-43F0-BE6C-1B71EA7C0CC8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{02D36E81-293C-434C-9FD3-5ECF56E8B616}"/>
+    <workbookView xWindow="2652" yWindow="672" windowWidth="17280" windowHeight="9960" xr2:uid="{02D36E81-293C-434C-9FD3-5ECF56E8B616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Anon_SID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>CV</t>
   </si>
   <si>
-    <t>INTERPRET</t>
-  </si>
-  <si>
     <t>pastMistakes</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>numTot</t>
+  </si>
+  <si>
+    <t>Interpret</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,6 +189,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1EB34-A580-4227-B89D-BEED660729D4}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,25 +562,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -582,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -614,16 +629,16 @@
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -646,16 +661,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="10">
         <v>6</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="10">
         <v>6</v>
@@ -730,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>915435469</v>
       </c>
@@ -753,7 +768,8 @@
       <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
+        <f>J4</f>
         <v>6</v>
       </c>
       <c r="I7" s="10">
@@ -763,59 +779,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>915435469</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>915435469</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>915435469</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>915435469</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>915435469</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="10">
+        <f>J7</f>
         <v>8</v>
       </c>
     </row>
@@ -830,36 +855,59 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>915435469</v>
-      </c>
-      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f>J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>915435469</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="14">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>915435469</v>
+      </c>
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>915435469</v>
-      </c>
-      <c r="B13">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="10">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>915435469</v>
+      </c>
+      <c r="B14">
         <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>9999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -884,6 +932,11 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>9999999</v>
       </c>
     </row>
@@ -917,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,15 +978,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -941,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,15 +1002,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
